--- a/downloads/KB-Liste Holstein.xlsx
+++ b/downloads/KB-Liste Holstein.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Anna\HP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FC503BB-1C0A-4950-9093-1868A59DF48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24502386-D9E4-4B41-BA47-570ABC8BFF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{D7C5E3BB-56CC-4DFB-BD16-5E756B0E3EB3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D7C5E3BB-56CC-4DFB-BD16-5E756B0E3EB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="152">
   <si>
     <t>Holstein SVKB</t>
   </si>
@@ -276,20 +276,6 @@
     <t>Roboter, Inhalt, Geburt, Nutzungsda., ZZ</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Lumo-ET P </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Prüf)</t>
-    </r>
-  </si>
-  <si>
     <t>53 o</t>
   </si>
   <si>
@@ -447,9 +433,6 @@
   </si>
   <si>
     <t>*X-Bale-ET</t>
-  </si>
-  <si>
-    <t>104</t>
   </si>
   <si>
     <r>
@@ -469,9 +452,6 @@
     <t>X-Canon SG-ET</t>
   </si>
   <si>
-    <t>108</t>
-  </si>
-  <si>
     <t xml:space="preserve">X-Carlitos PP </t>
   </si>
   <si>
@@ -497,9 +477,6 @@
   </si>
   <si>
     <t>X-Kingpin-ET</t>
-  </si>
-  <si>
-    <t>X-Light my Fire-ET</t>
   </si>
   <si>
     <t>46 o</t>
@@ -569,10 +546,80 @@
     <t>* = CDH-Träger, nicht an CDH-Trägerin! Trägerin in Besamerkarte markiert</t>
   </si>
   <si>
-    <t>Roboter, ZZ, Inhalt, Geburt</t>
-  </si>
-  <si>
-    <t>Euter, Inhalt, Nutzungsdauer</t>
+    <r>
+      <t xml:space="preserve">Roboter, ZZ, Inhalt, Geburt </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(nicht 001)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Lezard-ET </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Prüf)</t>
+    </r>
+  </si>
+  <si>
+    <t>54 u</t>
+  </si>
+  <si>
+    <t>Inhalt, BB, Euter, ZZ, Geburt, Fruchtbarkeit</t>
+  </si>
+  <si>
+    <t>Lumo-ET P</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Euter, Inhalt, Nutzungsdauer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(nicht 029)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Euter, Inhalt, Nutzungsdauer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(nicht 004)</t>
+    </r>
+  </si>
+  <si>
+    <t>X-Lezard-ET</t>
+  </si>
+  <si>
+    <t>X-Light my Fir-ET</t>
   </si>
 </sst>
 </file>
@@ -710,11 +757,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -776,6 +820,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1090,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF50E24-AA98-440F-B1EB-29750D1C645A}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,1150 +1159,1188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4">
-        <v>44382</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="1">
+        <v>44407</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="7">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="9">
         <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="14">
         <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="16">
         <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="19">
         <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="19">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="16">
         <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="16">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="19">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="16">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="16">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="16">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="19">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="19">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="F14" s="19">
+      <c r="B22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="16">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="16">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="19">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="19">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="19">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="22">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="23">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="14">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="19">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="14">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="19">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="19">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="B36" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="22">
+      <c r="E36" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="19"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="9">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="31">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F44" s="32">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45" s="14">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="14">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="22">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F50" s="22"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="14">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F54" s="14">
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="19">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="19">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="9" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F55" s="23">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F56" s="25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F57" s="14">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="19">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="22">
+      <c r="F58" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F59" s="25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="18" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="22">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="19" t="s">
+      <c r="D60" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F60" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="19">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F23" s="19">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="22">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="22">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" s="22">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="25">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="26">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="17">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="22">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" s="17">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" s="22">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F33" s="22">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="22"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="12">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F43" s="25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F44" s="17">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F45" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F47" s="17">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F48" s="25">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F50" s="17">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F52" s="17">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F53" s="26">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F54" s="28">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F55" s="17">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F56" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F57" s="28">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="11"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="11"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/downloads/KB-Liste Holstein.xlsx
+++ b/downloads/KB-Liste Holstein.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Anna\HP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055ACAE7-1D91-4F71-BB97-0D6C2197247C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78AF575-9B2F-411E-9616-DA7AAC7D26CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{D7C5E3BB-56CC-4DFB-BD16-5E756B0E3EB3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="106">
   <si>
     <t>Holstein SVKB</t>
   </si>
@@ -102,20 +102,6 @@
   </si>
   <si>
     <t>ZZ, +1270kg, fruchtbar, Geburt, Format</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Brain-ET </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Prüf)</t>
-    </r>
   </si>
   <si>
     <t>Roboter, Milch, Eiweiss, Euter</t>
@@ -166,9 +152,6 @@
     <t>Delio</t>
   </si>
   <si>
-    <t xml:space="preserve"> +1137, Exterieur, Zellzahl, BIO</t>
-  </si>
-  <si>
     <t>Zellzahl, Exterieur, Nutzungsdauer</t>
   </si>
   <si>
@@ -256,20 +239,6 @@
     <t>*X-Bale-ET</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">X-Brain-ET </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Prüf)</t>
-    </r>
-  </si>
-  <si>
     <t>X-Canon SG-ET</t>
   </si>
   <si>
@@ -315,57 +284,13 @@
     <t>X-Tino</t>
   </si>
   <si>
-    <r>
-      <t>X-Woodman-ET</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> P </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Prüf)</t>
-    </r>
-  </si>
-  <si>
     <t>* = CDH-Träger, nicht an CDH-Trägerin! Trägerin in Besamerkarte markiert</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Lezard-ET </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Prüf)</t>
-    </r>
-  </si>
-  <si>
     <t>Inhalt, BB, Euter, ZZ, Geburt, Fruchtbarkeit</t>
   </si>
   <si>
     <t>X-Lezard-ET</t>
-  </si>
-  <si>
-    <t>X-Light my Fir-ET</t>
   </si>
   <si>
     <t>Roboter, Euter, Zellzahl, Inhaltsstoffe</t>
@@ -400,9 +325,6 @@
     <t>Roboter, Milch</t>
   </si>
   <si>
-    <t>Mygold (Prüf)</t>
-  </si>
-  <si>
     <t>Pilpoil-ET</t>
   </si>
   <si>
@@ -419,6 +341,100 @@
   </si>
   <si>
     <t xml:space="preserve">Euter, Inhalt, Nutzungsdauer </t>
+  </si>
+  <si>
+    <r>
+      <t>Awak</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Prüf)</t>
+    </r>
+  </si>
+  <si>
+    <t>+1544 kg, Milch, Euter</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brain-ET </t>
+  </si>
+  <si>
+    <t>Exterieur, Zellzahl, BIO</t>
+  </si>
+  <si>
+    <r>
+      <t>Gray</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Prüf)</t>
+    </r>
+  </si>
+  <si>
+    <t>Milch, Fruchtbarkeit, Euter, Roboter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lezard-ET </t>
+  </si>
+  <si>
+    <r>
+      <t>Mygold</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Prüf)</t>
+    </r>
+  </si>
+  <si>
+    <t>Euter, Roboter, Exterieur, BB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X-Brain-ET </t>
+  </si>
+  <si>
+    <t>X-Light my Fire-ET</t>
+  </si>
+  <si>
+    <t>X-Luster-ET P</t>
+  </si>
+  <si>
+    <t>HO RF</t>
+  </si>
+  <si>
+    <t>Inhalt, +1985kg, ZZ, Euter, gross</t>
+  </si>
+  <si>
+    <t>X-Magnitude-ET</t>
+  </si>
+  <si>
+    <r>
+      <t>X-Woodman-ET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> P</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -469,7 +485,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,6 +501,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -573,7 +595,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -581,12 +602,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -901,18 +924,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF50E24-AA98-440F-B1EB-29750D1C645A}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -920,8 +943,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="21"/>
-      <c r="C1" s="22">
-        <v>44434</v>
+      <c r="C1" s="19">
+        <v>44519</v>
       </c>
       <c r="D1" s="2"/>
     </row>
@@ -953,633 +976,635 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D4" s="6">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="12">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="13">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="8">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="12">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="13">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D9" s="15">
         <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="15">
-        <v>110</v>
+        <v>19</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="D12" s="13">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="13">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="B13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="13">
+      <c r="C13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="13">
         <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="15">
-        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="13">
-        <v>85</v>
+        <v>27</v>
+      </c>
+      <c r="D14" s="15">
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="13">
         <v>85</v>
       </c>
-      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="15"/>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>54</v>
+      <c r="D17" s="13">
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="13">
-        <v>110</v>
-      </c>
+      <c r="A18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="13">
-        <v>107</v>
+        <v>74</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D20" s="13">
+        <v>110</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="15"/>
+      <c r="C21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="13">
+        <v>107</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="15"/>
+        <v>82</v>
+      </c>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D26" s="23">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="16"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="12">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="5" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="17">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="17"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="C29" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="12">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="12">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="12">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="15">
+      <c r="D29" s="12">
         <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="15">
-        <v>104</v>
+        <v>42</v>
+      </c>
+      <c r="D30" s="12">
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="13">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="13" t="s">
+      <c r="D34" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="15"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>54</v>
-      </c>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="15"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>7</v>
+        <v>51</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D39" s="8">
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="5" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D40" s="15">
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="13" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40" s="17">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" s="12">
-        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>54</v>
+        <v>88</v>
+      </c>
+      <c r="D42" s="16">
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>9</v>
+      <c r="A43" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>7</v>
+        <v>60</v>
+      </c>
+      <c r="D43" s="12">
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="12">
-        <v>78</v>
+        <v>62</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45" s="17"/>
+        <v>64</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="D46" s="12">
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="12">
-        <v>107</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D47" s="16"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D49" s="18">
+      <c r="A49" s="5" t="s">
         <v>101</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D50" s="12">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>5</v>
@@ -1587,37 +1612,91 @@
       <c r="C51" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="12"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D52" s="13" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="17">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="12">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="7"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="23"/>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/downloads/KB-Liste Holstein.xlsx
+++ b/downloads/KB-Liste Holstein.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Anna\HP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78AF575-9B2F-411E-9616-DA7AAC7D26CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA70B03-06AC-4D25-814D-8517B818DD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{D7C5E3BB-56CC-4DFB-BD16-5E756B0E3EB3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="110">
   <si>
     <t>Holstein SVKB</t>
   </si>
@@ -322,9 +322,6 @@
     <t>Montai-ET</t>
   </si>
   <si>
-    <t>Roboter, Milch</t>
-  </si>
-  <si>
     <t>Pilpoil-ET</t>
   </si>
   <si>
@@ -389,20 +386,6 @@
     <t xml:space="preserve">Lezard-ET </t>
   </si>
   <si>
-    <r>
-      <t>Mygold</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Prüf)</t>
-    </r>
-  </si>
-  <si>
     <t>Euter, Roboter, Exterieur, BB</t>
   </si>
   <si>
@@ -435,6 +418,46 @@
       </rPr>
       <t xml:space="preserve"> P</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dynastar-ET </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Prüf)</t>
+    </r>
+  </si>
+  <si>
+    <t>Inhalt, Becken, Euter, fruchtbar, Geburt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t>Roboter, Milch, ZZ, fruchtbar, Geburt</t>
+  </si>
+  <si>
+    <r>
+      <t>Mygold</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>S-Brain</t>
   </si>
 </sst>
 </file>
@@ -562,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -602,14 +625,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -924,27 +952,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF50E24-AA98-440F-B1EB-29750D1C645A}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="19">
-        <v>44519</v>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25">
+        <v>44561</v>
       </c>
       <c r="D1" s="2"/>
     </row>
@@ -984,22 +1012,24 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>90</v>
-      </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>91</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>77</v>
@@ -1052,7 +1082,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>5</v>
@@ -1100,7 +1130,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="13">
         <v>103</v>
@@ -1128,7 +1158,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="13">
         <v>85</v>
@@ -1136,567 +1166,599 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="13"/>
+      <c r="C16" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D18" s="13">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="15" t="s">
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="13">
-        <v>110</v>
+        <v>74</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="D21" s="13">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="13">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="13"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="8"/>
+      <c r="C23" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="15"/>
+      <c r="A24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="B26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D26" s="15">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D27" s="20">
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="5" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="16"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="16"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B30" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D30" s="12">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B31" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="12">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="12">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="15">
+      <c r="D31" s="12">
         <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="15">
-        <v>104</v>
+        <v>42</v>
+      </c>
+      <c r="D32" s="12">
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="5" t="s">
+      <c r="B35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D35" s="13">
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B36" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D36" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="15"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>52</v>
-      </c>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="15"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="5" t="s">
+      <c r="B40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B41" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D41" s="8">
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B42" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D42" s="15">
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="5" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D43" s="13" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="16">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="12">
-        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>52</v>
+        <v>87</v>
+      </c>
+      <c r="D44" s="16">
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>9</v>
+      <c r="A45" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>7</v>
+        <v>60</v>
+      </c>
+      <c r="D45" s="12">
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="12">
-        <v>78</v>
+        <v>62</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D47" s="16"/>
+        <v>64</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="D48" s="12">
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>52</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D49" s="16"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D50" s="12">
-        <v>107</v>
+        <v>66</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" s="12"/>
+        <v>101</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="D52" s="12">
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D53" s="17">
-        <v>101</v>
-      </c>
+      <c r="A53" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" s="12"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="17">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="5" t="s">
+      <c r="B56" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D56" s="12">
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="5" t="s">
+      <c r="B57" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D57" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B56" s="11" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D58" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="7"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="18" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="7"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/downloads/KB-Liste Holstein.xlsx
+++ b/downloads/KB-Liste Holstein.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Anna\HP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA70B03-06AC-4D25-814D-8517B818DD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C7885C-0833-450A-AEA7-5D2E0E3F6234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{D7C5E3BB-56CC-4DFB-BD16-5E756B0E3EB3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="110">
   <si>
     <t>Holstein SVKB</t>
   </si>
@@ -275,12 +275,6 @@
     <t>Roboter, Euter, Nutzungsdauer</t>
   </si>
   <si>
-    <t xml:space="preserve">X-Samon-ET </t>
-  </si>
-  <si>
-    <t>X-Showking-ET</t>
-  </si>
-  <si>
     <t>X-Tino</t>
   </si>
   <si>
@@ -458,6 +452,12 @@
   </si>
   <si>
     <t>S-Brain</t>
+  </si>
+  <si>
+    <t>Benettoni-ET</t>
+  </si>
+  <si>
+    <t>Roboter, Eiweiss, fruchtbar, Euter</t>
   </si>
 </sst>
 </file>
@@ -585,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -630,14 +630,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -952,27 +947,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF50E24-AA98-440F-B1EB-29750D1C645A}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25">
-        <v>44561</v>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24">
+        <v>44575</v>
       </c>
       <c r="D1" s="2"/>
     </row>
@@ -1004,7 +999,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" s="6">
         <v>86</v>
@@ -1012,13 +1007,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>52</v>
@@ -1029,10 +1024,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D6" s="8">
         <v>99</v>
@@ -1067,308 +1062,308 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>17</v>
+      <c r="A9" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="13">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D10" s="15">
         <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="15">
-        <v>110</v>
+        <v>19</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D13" s="13">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="13">
+      <c r="C14" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="13">
         <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="15">
-        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="13">
-        <v>85</v>
+        <v>27</v>
+      </c>
+      <c r="D15" s="15">
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>52</v>
+        <v>90</v>
+      </c>
+      <c r="D16" s="13">
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>46</v>
+      <c r="C17" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="13">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="13">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="15" t="s">
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="13">
-        <v>110</v>
+        <v>72</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="D22" s="13">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="13">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" s="13" t="s">
+      <c r="C24" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="8"/>
-    </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="15"/>
+      <c r="A25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="B27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D27" s="15">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D28" s="20">
         <v>102</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="16"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="16"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="16"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="12">
-        <v>101</v>
-      </c>
+      <c r="D30" s="16"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>38</v>
@@ -1381,104 +1376,104 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>5</v>
+      <c r="A32" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D32" s="12">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="15">
-        <v>101</v>
+        <v>42</v>
+      </c>
+      <c r="D33" s="12">
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D34" s="15">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="B36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D36" s="13">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B37" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D37" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="15"/>
-    </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>52</v>
-      </c>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="15"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>52</v>
@@ -1486,279 +1481,265 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="5" t="s">
+      <c r="B41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B42" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D42" s="8">
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B43" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D43" s="15">
         <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="16">
+      <c r="B45" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="16">
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B46" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D46" s="12">
         <v>103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>7</v>
+        <v>62</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="12">
-        <v>78</v>
+        <v>64</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" s="16"/>
+        <v>29</v>
+      </c>
+      <c r="D49" s="12">
+        <v>78</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>7</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D50" s="16"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" s="12">
-        <v>107</v>
+        <v>99</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D53" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="D53" s="12">
+        <v>107</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" s="12"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B55" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C55" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D55" s="12" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55" s="17">
-        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D56" s="12">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="7"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/downloads/KB-Liste Holstein.xlsx
+++ b/downloads/KB-Liste Holstein.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Stiere\Pdf Homepage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF0A443-72A8-4CF2-B55A-BBD9888482F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DE4D3EF-DE09-4CC9-A1FB-C089F448EF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{35C558FB-8F3F-42EE-BF75-5703FD627DEB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF9BA6DD-9EBD-4AE4-B7C3-802D55C4CF04}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="110">
   <si>
     <t>Holstein SVKB</t>
   </si>
@@ -92,6 +92,12 @@
     <t xml:space="preserve"> +1237kg, Gehalt, Euter</t>
   </si>
   <si>
+    <t>Batching (Prüf)</t>
+  </si>
+  <si>
+    <t>Roboter, BB, Milchfluss langsam</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brain-ET </t>
   </si>
   <si>
@@ -104,7 +110,7 @@
     <t xml:space="preserve"> +1645kg, Exterieur, Geburt, Zellzahl</t>
   </si>
   <si>
-    <t>Capaul-ET  (Prüf)</t>
+    <t>Capaul-ET</t>
   </si>
   <si>
     <t>+ 2211kg, Roboter, Exterieur</t>
@@ -113,31 +119,25 @@
     <t>Carlitos PP</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>RF</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Op</t>
-    </r>
+    <t>RF Op</t>
   </si>
   <si>
     <t>Roboter, ZZ, Inhalt, Geburt</t>
   </si>
   <si>
-    <t>Cognac-ET  (Prüf)</t>
+    <t>Cash SG-ET (Prüf)</t>
+  </si>
+  <si>
+    <t>+2'300kg, Roboter, Exterieur</t>
+  </si>
+  <si>
+    <t>Chicago-ET (Prüf)</t>
+  </si>
+  <si>
+    <t>Roboter, Eutergesundheit, Euter</t>
+  </si>
+  <si>
+    <t>Cognac-ET</t>
   </si>
   <si>
     <t>Gehalt, Eutergesundheit, BB</t>
@@ -179,6 +179,12 @@
     <t>Milch, Euter, Inhalt</t>
   </si>
   <si>
+    <t>Leco-ET (Prüf)</t>
+  </si>
+  <si>
+    <t>Gehalt, Euter</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lezard-ET </t>
   </si>
   <si>
@@ -228,9 +234,6 @@
   </si>
   <si>
     <t>S-Samon-ET</t>
-  </si>
-  <si>
-    <t>RF Op</t>
   </si>
   <si>
     <t>Roboter, Funktionalität, Euter</t>
@@ -440,13 +443,13 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <i/>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <i/>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
@@ -526,16 +529,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
@@ -566,10 +575,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -884,773 +889,825 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F26AEC-278F-4423-ADBE-8AFD80C56FCE}">
-  <dimension ref="A1:D56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2724A7E0-364C-4F21-99C2-33406C24AEAE}">
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="22" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="14">
-        <v>44981</v>
-      </c>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="20">
+        <v>45051</v>
+      </c>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="23">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="21">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="21">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="24">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="24"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="24">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="19">
+      <c r="C11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="25">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="19"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="20">
+      <c r="B13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="26">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="26"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="20"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="C15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="26"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="18">
+      <c r="D16" s="26"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="24">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="18"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="24">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="24">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="24"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="24">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="4" t="s">
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="24">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="21">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="27"/>
+    </row>
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="18">
+      <c r="C32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="27"/>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="26"/>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="26">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="26">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="25"/>
+    </row>
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="25"/>
+    </row>
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="25"/>
+    </row>
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="21"/>
+    </row>
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="24"/>
+    </row>
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="26"/>
+    </row>
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="26"/>
+    </row>
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="25"/>
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="25"/>
+    </row>
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="21"/>
+    </row>
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="25"/>
+    </row>
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="26"/>
+    </row>
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="B50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="27"/>
+    </row>
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="18">
+      <c r="C51" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="26"/>
+    </row>
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="18" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="19">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="19">
+      <c r="D52" s="26"/>
+    </row>
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="18">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="B53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="26"/>
+    </row>
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="26"/>
+    </row>
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="18">
+      <c r="C55" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="26"/>
+    </row>
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="26"/>
+    </row>
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="24"/>
+    </row>
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="15">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="19">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="21"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="21"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="20"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="20">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="20">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="19"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="19"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="19"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="15"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="18"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="20"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="20"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="19"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="19"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" s="15"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="19"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="20"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="21"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" s="20"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D48" s="20"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D49" s="20"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="20"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51" s="20"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D53" s="18"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D54" s="18"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="15"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="15"/>
+      <c r="B58" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" s="24"/>
+    </row>
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="21"/>
+    </row>
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A35" r:id="rId1" xr:uid="{B9C057E9-5C19-4B97-AA40-C06BC6724A1A}"/>
-    <hyperlink ref="A36" r:id="rId2" xr:uid="{7F4FB27C-CB83-41EB-BCB7-CD424A42F0A9}"/>
-    <hyperlink ref="A19" r:id="rId3" xr:uid="{62E21EB6-E7A9-4B55-853C-31FF5A91F45B}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{314067A6-03E0-476D-9E37-8035BC9F1DCA}"/>
-    <hyperlink ref="A8" r:id="rId5" display="Barolo SG" xr:uid="{5461094A-6265-4196-9D4C-6B362BFF093F}"/>
-    <hyperlink ref="A38" r:id="rId6" xr:uid="{AA428839-5BEE-4B85-BB91-A48CBA099C87}"/>
-    <hyperlink ref="A9" r:id="rId7" xr:uid="{4A694783-E8BA-4039-99BB-D272EDD313CB}"/>
-    <hyperlink ref="A10" r:id="rId8" xr:uid="{DFFC6CF0-C816-4D2F-A055-7BD0A40CE346}"/>
-    <hyperlink ref="A41" r:id="rId9" xr:uid="{EF607B50-1BB5-457D-A6A5-AF597FF8C108}"/>
-    <hyperlink ref="A16" r:id="rId10" xr:uid="{F01D75A6-F08A-41A8-A887-45C1877B7CEC}"/>
-    <hyperlink ref="A45" r:id="rId11" xr:uid="{E627868B-B5FA-4F28-B89F-CE1FD1D2ED3A}"/>
-    <hyperlink ref="A18" r:id="rId12" xr:uid="{9391EAC5-6EDA-4791-8646-8F82AD77F5EA}"/>
-    <hyperlink ref="A20" r:id="rId13" xr:uid="{E1703506-4D36-4E61-BB8E-D093935BC6CE}"/>
-    <hyperlink ref="A46" r:id="rId14" xr:uid="{6F36AFEA-7CB0-400F-91E9-29138BB88D62}"/>
-    <hyperlink ref="A47" r:id="rId15" xr:uid="{24C81EF6-474B-4C1D-B943-9883267426AF}"/>
-    <hyperlink ref="A22" r:id="rId16" xr:uid="{E02601EC-967A-4D31-8985-EA41CAABC0F3}"/>
-    <hyperlink ref="A50" r:id="rId17" xr:uid="{9BEC5B70-6BBE-41E2-B51B-730A61734628}"/>
-    <hyperlink ref="A24" r:id="rId18" xr:uid="{87B30970-AD0F-4023-8E0D-72BA5211BF33}"/>
-    <hyperlink ref="A25" r:id="rId19" xr:uid="{4D69A6AD-4505-4336-B69D-629B79086ACB}"/>
-    <hyperlink ref="A26" r:id="rId20" xr:uid="{828365AB-5661-439C-AEA4-AFD041752548}"/>
-    <hyperlink ref="A28" r:id="rId21" xr:uid="{72910162-B2DC-4C71-9D43-A376A6109ECF}"/>
-    <hyperlink ref="A31" r:id="rId22" xr:uid="{C44671EA-2DA1-4F84-BFE2-72A6D9DD62F6}"/>
-    <hyperlink ref="A7" r:id="rId23" xr:uid="{4CA78BB0-F539-4826-BF3F-59683ED3A5CB}"/>
-    <hyperlink ref="A27" r:id="rId24" xr:uid="{35FB8E0D-2AB7-4C60-B78B-951A8E26E3B2}"/>
-    <hyperlink ref="A37" r:id="rId25" xr:uid="{7096AB5B-D32C-44DF-AEC7-33683E989A3C}"/>
-    <hyperlink ref="A12" r:id="rId26" xr:uid="{A5884EA3-BBB4-4DD7-BCF6-E8141B748C91}"/>
-    <hyperlink ref="A39" r:id="rId27" xr:uid="{C3CF3308-ED75-4CAC-818C-7025EDEB1EC7}"/>
-    <hyperlink ref="A29" r:id="rId28" xr:uid="{1CC3C49B-79BF-42DB-90D0-71FF617D611F}"/>
-    <hyperlink ref="A30" r:id="rId29" xr:uid="{6005B977-7D16-4D19-82BB-D72E93778578}"/>
-    <hyperlink ref="A54" r:id="rId30" xr:uid="{A7B66E2C-ACA4-4FA3-A614-85DCBE4541DA}"/>
-    <hyperlink ref="A14" r:id="rId31" display="Dark Knight (Prüf)" xr:uid="{354DF518-0727-48F9-9B80-55A077E6C2C2}"/>
-    <hyperlink ref="A15" r:id="rId32" xr:uid="{18D5A2DA-CB02-4264-A00C-16D724D158E2}"/>
-    <hyperlink ref="A33" r:id="rId33" display="Vagor P" xr:uid="{1744A425-C42C-4113-AFFE-12233F80C732}"/>
-    <hyperlink ref="A42" r:id="rId34" xr:uid="{7823E3FC-2E80-4F87-ABE0-453C6C86A3C3}"/>
-    <hyperlink ref="A44" r:id="rId35" display="Diago-ET" xr:uid="{13DDD1CB-5FBC-4593-A6AD-885FACE35A27}"/>
-    <hyperlink ref="A43" r:id="rId36" xr:uid="{EE1AAD1F-0605-4F16-AA62-730B9EDB15AA}"/>
-    <hyperlink ref="A53" r:id="rId37" xr:uid="{FC8B83DD-C1BE-48BF-89D3-E268A5ED7AFF}"/>
-    <hyperlink ref="A5" r:id="rId38" xr:uid="{CB5D28C0-7C13-4640-82BE-6177B7425229}"/>
-    <hyperlink ref="A49" r:id="rId39" xr:uid="{BE4F9FB7-CAF9-44CA-9426-920DC87E6B49}"/>
-    <hyperlink ref="A40" r:id="rId40" display="X-Connor-ET PP (Prüf)" xr:uid="{344AFC41-3402-4372-BE05-0D243ABA9284}"/>
-    <hyperlink ref="A13" r:id="rId41" xr:uid="{7F11F6BD-CCF2-4677-9693-BD8B648B1FE0}"/>
-    <hyperlink ref="A11" r:id="rId42" xr:uid="{1A08250B-F4C9-4B3A-8D96-482971325A01}"/>
-    <hyperlink ref="A6" r:id="rId43" xr:uid="{F5B2FF8D-4DD6-4680-90EA-5BADFC42B938}"/>
-    <hyperlink ref="A17" r:id="rId44" xr:uid="{CB59BDDD-0382-47DF-BAE3-E78D07A460CC}"/>
-    <hyperlink ref="A21" r:id="rId45" xr:uid="{0E97DBA1-B719-4D56-B610-4E6E804657B0}"/>
-    <hyperlink ref="A51" r:id="rId46" xr:uid="{24D47809-BA64-4656-A531-BC5938480724}"/>
-    <hyperlink ref="A32" r:id="rId47" xr:uid="{7EA151D5-6542-430D-8339-48ED977DABA9}"/>
-    <hyperlink ref="A23" r:id="rId48" xr:uid="{CB0F2B76-9E64-4FB4-8CA1-5BCA6FDAF466}"/>
-    <hyperlink ref="A52" r:id="rId49" xr:uid="{E8CAB1DE-DB27-4F35-BF4B-F5E7A58AB96E}"/>
+    <hyperlink ref="A39" r:id="rId1" xr:uid="{40B6AEFD-1208-43F4-8BC7-7957A5D4A011}"/>
+    <hyperlink ref="A40" r:id="rId2" xr:uid="{62C56261-AECF-43AE-AA20-90E54CEF039A}"/>
+    <hyperlink ref="A22" r:id="rId3" xr:uid="{19BD76FC-C55B-4337-B42A-4A76056EA56A}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{E8A1DD51-090B-4B67-9B7E-B4AA347411EC}"/>
+    <hyperlink ref="A8" r:id="rId5" display="Barolo SG" xr:uid="{51FAC58A-B24C-4E17-8A59-9F81A3AF8906}"/>
+    <hyperlink ref="A42" r:id="rId6" xr:uid="{24BFDA06-0826-4F67-8B11-AEF93D67C208}"/>
+    <hyperlink ref="A10" r:id="rId7" xr:uid="{7024FE91-7759-44C1-95F6-0EFE1AE54F3E}"/>
+    <hyperlink ref="A11" r:id="rId8" xr:uid="{60BD0041-4F50-4B48-95B0-9D697522F31D}"/>
+    <hyperlink ref="A45" r:id="rId9" xr:uid="{9C208EB7-B090-4C4B-8618-FA109DB42DF6}"/>
+    <hyperlink ref="A19" r:id="rId10" xr:uid="{27B1024D-3E58-4087-99EC-EE56761B1F94}"/>
+    <hyperlink ref="A49" r:id="rId11" xr:uid="{B93E7707-2198-4241-B686-536541FF5483}"/>
+    <hyperlink ref="A21" r:id="rId12" xr:uid="{8CDAFEDB-282C-4AAB-8AEB-F56292515871}"/>
+    <hyperlink ref="A24" r:id="rId13" xr:uid="{55B644A0-B19C-40A0-82F9-60895169CFCB}"/>
+    <hyperlink ref="A50" r:id="rId14" xr:uid="{E9365BCB-B948-47F7-987B-DFF7B25B09F6}"/>
+    <hyperlink ref="A51" r:id="rId15" xr:uid="{06B411A6-D96D-4548-BC6C-E7A86FBBF48E}"/>
+    <hyperlink ref="A26" r:id="rId16" xr:uid="{DB2985F4-8632-4B29-866B-D439D756D660}"/>
+    <hyperlink ref="A54" r:id="rId17" xr:uid="{49285B87-470B-4A90-8A20-9707541C98F8}"/>
+    <hyperlink ref="A28" r:id="rId18" xr:uid="{9A5578E9-72EC-459F-B67D-DF390D81723B}"/>
+    <hyperlink ref="A29" r:id="rId19" xr:uid="{E6C46EB3-9D0C-4E47-92A8-90ED3F1517AA}"/>
+    <hyperlink ref="A30" r:id="rId20" xr:uid="{1044A25B-1CC7-4A06-896F-A626CBEA9422}"/>
+    <hyperlink ref="A32" r:id="rId21" xr:uid="{0B36027F-9EC2-40EE-AE04-0AE0098C5592}"/>
+    <hyperlink ref="A35" r:id="rId22" xr:uid="{484EA6D0-A5F1-482F-90F5-7F9D1EE812D9}"/>
+    <hyperlink ref="A7" r:id="rId23" xr:uid="{E4927831-9DF7-4EEA-9EFC-096061AAC3D4}"/>
+    <hyperlink ref="A31" r:id="rId24" xr:uid="{07C5AA8E-23F2-4870-A9BB-AD86C37AC4A5}"/>
+    <hyperlink ref="A41" r:id="rId25" xr:uid="{F264D484-E595-459B-AD50-AC4589073142}"/>
+    <hyperlink ref="A13" r:id="rId26" xr:uid="{4CCBFA72-FB20-4CB9-86F2-F6788A9C41B1}"/>
+    <hyperlink ref="A43" r:id="rId27" xr:uid="{7ED0EDD7-B5E4-4810-8235-7B60691836EA}"/>
+    <hyperlink ref="A33" r:id="rId28" xr:uid="{1ABBBE39-DF61-450A-839B-94A667C2BA6A}"/>
+    <hyperlink ref="A34" r:id="rId29" xr:uid="{6E849EB4-8990-4D36-B40F-47AF652CFCAB}"/>
+    <hyperlink ref="A58" r:id="rId30" xr:uid="{7C18F705-5355-426A-9E30-0F67A1728D37}"/>
+    <hyperlink ref="A17" r:id="rId31" display="Dark Knight (Prüf)" xr:uid="{82729084-E664-4CF5-B903-0D0066EE3BD8}"/>
+    <hyperlink ref="A18" r:id="rId32" xr:uid="{656168AF-42A4-4B5E-8FA9-008CC260A6E7}"/>
+    <hyperlink ref="A37" r:id="rId33" display="Vagor P" xr:uid="{43BFA4EA-F0B0-432C-89CD-08F4EF78B16C}"/>
+    <hyperlink ref="A46" r:id="rId34" xr:uid="{7E304FBF-78A4-48AB-8DA7-5AC43647B68C}"/>
+    <hyperlink ref="A48" r:id="rId35" display="Diago-ET" xr:uid="{88DC5C10-99F7-4E2C-B6CE-BA774ADA6BF8}"/>
+    <hyperlink ref="A47" r:id="rId36" xr:uid="{1F97534C-423B-490B-A9D6-7AEDDA9FF451}"/>
+    <hyperlink ref="A57" r:id="rId37" xr:uid="{6FF8DBFA-A5BE-47A9-B010-F5B967CFAFCB}"/>
+    <hyperlink ref="A5" r:id="rId38" xr:uid="{C9B27B12-998B-4D27-A2BE-2CB2DFFDA56A}"/>
+    <hyperlink ref="A53" r:id="rId39" xr:uid="{BFC4EF92-AEC9-4551-A181-F958FAFF6BD9}"/>
+    <hyperlink ref="A44" r:id="rId40" display="X-Connor-ET PP (Prüf)" xr:uid="{F9870215-7EDB-4850-BD95-D5CB52C00697}"/>
+    <hyperlink ref="A16" r:id="rId41" display="Cognac-ET  (Prüf)" xr:uid="{08A0327A-2938-45BE-A970-8EF195A861E7}"/>
+    <hyperlink ref="A12" r:id="rId42" display="Capaul-ET  (Prüf)" xr:uid="{29ED7CAD-5970-4C87-BEBA-665B60DE1D11}"/>
+    <hyperlink ref="A6" r:id="rId43" xr:uid="{4EC4C108-FE56-48AA-81D9-334471A73A49}"/>
+    <hyperlink ref="A20" r:id="rId44" xr:uid="{4EEF5B80-382A-4B58-B9CB-C5102D553691}"/>
+    <hyperlink ref="A25" r:id="rId45" xr:uid="{8487DE31-56E6-4369-BD0C-3D9052701C92}"/>
+    <hyperlink ref="A55" r:id="rId46" xr:uid="{2C4F2E52-7687-4FFE-A5F6-E54FAA1A4A52}"/>
+    <hyperlink ref="A36" r:id="rId47" xr:uid="{66D9E252-A354-4ABB-9499-160415B4E8F3}"/>
+    <hyperlink ref="A27" r:id="rId48" xr:uid="{8752259E-D12B-49DF-B0FF-E28BCE9A9AAB}"/>
+    <hyperlink ref="A56" r:id="rId49" xr:uid="{BC8B69E5-B097-4BD4-9839-6FECA59F36D1}"/>
+    <hyperlink ref="A9" r:id="rId50" xr:uid="{1078240F-1E4B-45BD-B53F-513D0AB33516}"/>
+    <hyperlink ref="A14" r:id="rId51" xr:uid="{4A1ADCF2-47F9-4FD6-A9D0-572DEFA12D34}"/>
+    <hyperlink ref="A23" r:id="rId52" xr:uid="{F809C9E1-967A-4F7E-9329-B7577C3BF947}"/>
+    <hyperlink ref="A15" r:id="rId53" xr:uid="{DB28775A-80D9-458A-A05A-FECB7D7CE780}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId50"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
 </worksheet>
 </file>